--- a/HashQuark-Research1/evidence.xlsx
+++ b/HashQuark-Research1/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11840" tabRatio="500"/>
+    <workbookView windowWidth="28000" windowHeight="11840" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
   <si>
     <t>TeamName</t>
   </si>
@@ -92,34 +92,52 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>CB3BD702DFF7FA8B819AB6FC6E277F3766908E7CB68C31FFC5542012FDFC6760</t>
+  </si>
+  <si>
+    <t>hashquarklogo</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>10AAAEDE795C8866A46B32E1AAD360BA058B6641E6A3D0DC092525F6E232FC54</t>
+  </si>
+  <si>
+    <t>thehashquarklog</t>
+  </si>
+  <si>
+    <t>thehashquarklog1</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>336B9AE765EA80F88771BD3DBEFD059195615D361A59CE39BAE7432F5DE577FF</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>75BB202B053C053ED7A4696DA880ACE3DCCB032076A1B81168FCDF4473FA5F7F</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>F2E758646B4640215C252E4FDA7EE50084B62D79F16EC1B8D08C5E2B45611E51</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>1B5A97DD9B76007974950D4ABB51A46A760D91A045CC0531C6F20EC4DBA3C6AB</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -142,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -168,7 +186,148 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,147 +340,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -344,43 +362,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,133 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,26 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,26 +576,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,17 +595,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,141 +627,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,7 +1189,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1269,10 +1287,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1306,10 +1324,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1361,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1380,10 +1398,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1412,25 +1430,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1459,25 +1477,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1506,25 +1524,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1553,25 +1571,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1600,25 +1618,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1647,25 +1665,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1699,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1731,25 +1749,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1778,25 +1796,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1824,12 +1842,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1860,12 +1878,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1896,12 +1914,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1932,12 +1950,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1953,13 +1971,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="2"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -1978,13 +1996,21 @@
     </row>
     <row r="2" ht="13.2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2026,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2020,21 +2046,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2076,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2070,21 +2096,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2126,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2120,21 +2146,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2149,8 +2175,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2172,21 +2198,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2220,10 +2246,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2257,10 +2283,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/HashQuark-Research1/evidence.xlsx
+++ b/HashQuark-Research1/evidence.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
   <si>
     <t>TeamName</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>thehashquarklog</t>
+  </si>
+  <si>
+    <t>A255C7D6DD1FD112E70235C0D4AC2C43C0C30D92618198A4E5B4656F8E293DD5</t>
   </si>
   <si>
     <t>thehashquarklog1</t>
@@ -160,9 +163,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -207,9 +210,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,23 +254,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -250,7 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,17 +305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,21 +315,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -311,35 +329,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -374,175 +377,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,45 +556,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -613,6 +577,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -628,13 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,132 +647,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,7 +790,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,10 +1290,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1327,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1361,10 +1364,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1401,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1430,25 +1433,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1477,25 +1480,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1524,25 +1527,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1571,25 +1574,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1618,25 +1621,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1665,25 +1668,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1749,25 +1752,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1796,25 +1799,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1842,12 +1845,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1878,12 +1881,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1914,12 +1917,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1950,12 +1953,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +1977,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -2005,12 +2008,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2032,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2046,12 +2052,12 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
@@ -2060,7 +2066,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2076,7 +2082,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2096,21 +2102,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +2132,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2146,12 +2152,12 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
@@ -2160,7 +2166,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2182,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2198,21 +2204,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2246,10 +2252,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2283,10 +2289,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/HashQuark-Research1/evidence.xlsx
+++ b/HashQuark-Research1/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11840" tabRatio="500" activeTab="6"/>
+    <workbookView windowHeight="16960" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -189,7 +189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,14 +203,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +222,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -229,9 +246,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,78 +316,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,9 +330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -365,19 +365,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,25 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,133 +509,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +568,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -577,17 +592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,21 +608,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,149 +642,155 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1976,7 +1976,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2181,7 +2181,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/HashQuark-Research1/evidence.xlsx
+++ b/HashQuark-Research1/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="16960" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11960" tabRatio="500" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
   <si>
     <t>TeamName</t>
   </si>
@@ -137,19 +137,157 @@
     <t>1B5A97DD9B76007974950D4ABB51A46A760D91A045CC0531C6F20EC4DBA3C6AB</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>ibc/93AD90576BAFA7FC0D00DA77BD3EA1C8426CD52A3E4DCDF2B576C2BA0BB9902A</t>
+  </si>
+  <si>
+    <t>task7</t>
+  </si>
+  <si>
+    <t>ibc/DF39BAAAAC2A67173F1DFDCBB2F34E74B60FED51273D6EC9BBB0E2EB0865E8D7</t>
+  </si>
+  <si>
+    <t>task8</t>
+  </si>
+  <si>
+    <t>ibc/7B0C278C76A20F82CA4073F56EA86A698841F5F737320564EC11DA7FD6CB9AE0</t>
+  </si>
+  <si>
+    <t>task9</t>
+  </si>
+  <si>
+    <t>ibc/03C876D8704E6202BD830FB24B99D9DE40ABBBDBAB95A8CD5DA668ACD3076739</t>
+  </si>
+  <si>
+    <t>new1task10</t>
+  </si>
+  <si>
+    <t>ibc/D263639D255AF869577FA40B74E759B510BBB209DC86D5B3A245186A37925076</t>
+  </si>
+  <si>
+    <t>newtask11</t>
+  </si>
+  <si>
+    <t>ibc/D42D85FAA3F6FC33B516900B36B63F85277AA47A89416DFBB1BBDEFB2519F776</t>
+  </si>
+  <si>
+    <t>task12</t>
+  </si>
+  <si>
+    <t>A80B5FB1229307D147473CED5E8854696792AD838E4901214F0FA7BC0C0F1598</t>
+  </si>
+  <si>
+    <t>E0BD1CB933DB3A0AA2D85C0C7FC1F1DE3C4744B8EAA3C58DFC44688C01576528</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>4F955789C7FD114B0B09FD43DDA7D87AC1C0ED90B4867936E2E61EFDC89731DF</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>05FB23338C0C438E50F6A2E28D307B0E133E6EB7EA43871AEB7B6213A7FB9A21</t>
+  </si>
+  <si>
+    <t>D5B26C9B9EE95F5E881E866C6AFB4149A5CD87ED953ACD8BC65B1B5FE1FA5555</t>
+  </si>
+  <si>
+    <t>4E7F6CA94651A4B213841F9D7DA28BAB72B72095F9A798B07ADDFE211B43022C</t>
+  </si>
+  <si>
+    <t>03DF65BF2069BE55AF9F634D88A644EEE4C2195DF1935B1AECF681454CA3C2BD</t>
+  </si>
+  <si>
+    <t>1D05549CE829383DBFE0257B70DCB53B0711BA8D952D3301F305139F4FDCB8C2</t>
+  </si>
+  <si>
+    <t>3022021B9866662DBB09F8FCCE7FC60722FEB36770762CB13415F010055259AD</t>
+  </si>
+  <si>
+    <t>DFA12BF3272CDBEC19EF82D70ED173094F298C7F7EFA34615E9847AACF60A597</t>
+  </si>
+  <si>
+    <t>0E9DDB304F8E6A6BF5A428AF4245AC6F716A75C5A2CC6D821D916DEBE861DABF</t>
+  </si>
+  <si>
+    <t>A54777A7DEB0598C5F2DBA397B10204334DCE15F1ED04C4BA542022D0DCFCD70</t>
+  </si>
+  <si>
+    <t>B6530B009EA6915ABF35A3EC7D726626B582B027BC47B9431578464297D99010</t>
+  </si>
+  <si>
+    <t>742935F6D7757EAA41F2427B2647FB8325475F17A972841FA17DE235F7C1C303</t>
+  </si>
+  <si>
+    <t>F2D7A339E20E8D5EC5ACD54CB83707178F1D66EB0B912AAD6C47CE956942BA3A</t>
+  </si>
+  <si>
+    <t>AED96399051AB5388AB630F81228061606F89CD5435CAE777EE6286B519AE4E0</t>
+  </si>
+  <si>
+    <t>A2E51DE8DB6AF04618D85A4AFD215206CC6A6C75AADE17CCB8C7244D9552DB9B</t>
+  </si>
+  <si>
+    <t>398B093287884E44F79069A107DEEBD8D83A9BB372F0FBBAF0AB762987D66F7E</t>
+  </si>
+  <si>
+    <t>6E5C7205E7A050672ACBF0924396B7AD42F5CD260DC3AD8BC942D1906ACEC41B</t>
+  </si>
+  <si>
+    <t>C90D0F9B2FC9D10F1ECF48F6AB85C1F8839662F4EDC253FB2EFE05482F441600</t>
+  </si>
+  <si>
+    <t>75F81CB6BF4498616187DFA758230EDE93B664B88751EC878351B7748A6012E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gon-irishub-1</t>
+  </si>
+  <si>
+    <t>59DF4666C8541303A6B2FB125CC1650B77E071534EEA6067D5EA9046520FDE6E</t>
+  </si>
+  <si>
+    <t>8A5261E00B84373250FD06E4A8B5D53D7C17DF6BA79E7D34AE73795218443905</t>
+  </si>
+  <si>
+    <t>8A77BC84615635EF25B6F0127D8D3E36BC58DC8137F282B4F36AFB69154B3B45</t>
+  </si>
+  <si>
+    <t>451CFF690FA12F9DA3E625D29FA505872B377812218EF68293AACB561EB4008D</t>
+  </si>
+  <si>
+    <t>756A79E8899D8B92DAF2F2A796EED2BEDA281EACF977D19DFCBCF6E4846F041A</t>
+  </si>
+  <si>
+    <t>5DCB039F2D6E54DC3BAE2FFB08CB9E02A1F6BE488163F75670CEC795C2613AB8</t>
+  </si>
+  <si>
+    <t>58E920B5B66102FFFF67B456FD658BBD0EE70E8DEEE596E614EF7401C0AABAD0</t>
+  </si>
+  <si>
+    <t>DE158908FA42478579E070736FF3BCCFFAC4D9CC9A82BDF46893E61C323E45F6</t>
+  </si>
+  <si>
+    <t>DABB45EE838389CC3812024E14A89C5DF39E20F5699D0C15E16689AEA8E5B1C5</t>
+  </si>
+  <si>
+    <t>6F2E8C060F2751DFD44683B26DFEE6B545998EEE829E49D6989FCD1FEE75107E</t>
+  </si>
+  <si>
+    <t>397C63BEE08772E628108B20EF14CB5A7405E92AA8477F89676156D9E512F171</t>
+  </si>
+  <si>
+    <t>8FCF811811FA3BCD044CE919CA6FFCF20BB84EF6DE850F2B35AB2435BC365E9D</t>
+  </si>
+  <si>
+    <t>AFB2173AB19980389BCAA8B0D83DB0191F36AD1F2FC70A90DE3AC79A5A7D9A5B</t>
+  </si>
+  <si>
+    <t>580EED1987E2DD7923633ECBCD37C98A8DC796149E6B9B2D9AA5E305D300C794</t>
+  </si>
+  <si>
+    <t>90D9AF6749093C3989FE49E818CE54EE4BA80038C3D986AE32CEAB25067C1154</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -163,10 +301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -196,22 +334,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +368,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -239,7 +384,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -254,26 +399,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,9 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,7 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,16 +454,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,6 +466,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -365,187 +503,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,21 +706,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -592,37 +715,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,105 +754,131 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -750,44 +888,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1272,7 +1410,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1290,10 +1428,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1447,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1327,10 +1465,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1484,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1364,10 +1502,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1521,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1401,10 +1539,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1417,13 +1555,13 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1438,20 +1576,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1464,13 +1616,13 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1485,20 +1637,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1511,13 +1677,13 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1532,20 +1698,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1558,13 +1738,13 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1579,20 +1759,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1605,13 +1799,13 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1626,21 +1820,53 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" ht="13.2" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" ht="13.2" spans="1:1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" ht="13.2" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" ht="13.2" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" ht="13.2" spans="1:1">
+      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1652,13 +1878,13 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1673,20 +1899,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1736,13 +1976,13 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1757,21 +1997,54 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="13.2" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" ht="13.2" spans="1:1">
+      <c r="A8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1783,13 +2056,13 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1804,20 +2077,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1845,12 +2148,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1881,12 +2184,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1917,12 +2220,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1953,12 +2256,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +2279,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2234,7 +2537,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2271,7 +2574,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2289,10 +2592,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/HashQuark-Research1/evidence.xlsx
+++ b/HashQuark-Research1/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11840" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11960" tabRatio="500" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
   <si>
     <t>TeamName</t>
   </si>
@@ -92,43 +92,202 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>CB3BD702DFF7FA8B819AB6FC6E277F3766908E7CB68C31FFC5542012FDFC6760</t>
+  </si>
+  <si>
+    <t>hashquarklogo</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>10AAAEDE795C8866A46B32E1AAD360BA058B6641E6A3D0DC092525F6E232FC54</t>
+  </si>
+  <si>
+    <t>thehashquarklog</t>
+  </si>
+  <si>
+    <t>A255C7D6DD1FD112E70235C0D4AC2C43C0C30D92618198A4E5B4656F8E293DD5</t>
+  </si>
+  <si>
+    <t>thehashquarklog1</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>336B9AE765EA80F88771BD3DBEFD059195615D361A59CE39BAE7432F5DE577FF</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>75BB202B053C053ED7A4696DA880ACE3DCCB032076A1B81168FCDF4473FA5F7F</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>F2E758646B4640215C252E4FDA7EE50084B62D79F16EC1B8D08C5E2B45611E51</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>1B5A97DD9B76007974950D4ABB51A46A760D91A045CC0531C6F20EC4DBA3C6AB</t>
+  </si>
+  <si>
+    <t>ibc/93AD90576BAFA7FC0D00DA77BD3EA1C8426CD52A3E4DCDF2B576C2BA0BB9902A</t>
+  </si>
+  <si>
+    <t>task7</t>
+  </si>
+  <si>
+    <t>ibc/DF39BAAAAC2A67173F1DFDCBB2F34E74B60FED51273D6EC9BBB0E2EB0865E8D7</t>
+  </si>
+  <si>
+    <t>task8</t>
+  </si>
+  <si>
+    <t>ibc/7B0C278C76A20F82CA4073F56EA86A698841F5F737320564EC11DA7FD6CB9AE0</t>
+  </si>
+  <si>
+    <t>task9</t>
+  </si>
+  <si>
+    <t>ibc/03C876D8704E6202BD830FB24B99D9DE40ABBBDBAB95A8CD5DA668ACD3076739</t>
+  </si>
+  <si>
+    <t>new1task10</t>
+  </si>
+  <si>
+    <t>ibc/D263639D255AF869577FA40B74E759B510BBB209DC86D5B3A245186A37925076</t>
+  </si>
+  <si>
+    <t>newtask11</t>
+  </si>
+  <si>
+    <t>ibc/D42D85FAA3F6FC33B516900B36B63F85277AA47A89416DFBB1BBDEFB2519F776</t>
+  </si>
+  <si>
+    <t>task12</t>
+  </si>
+  <si>
+    <t>A80B5FB1229307D147473CED5E8854696792AD838E4901214F0FA7BC0C0F1598</t>
+  </si>
+  <si>
+    <t>E0BD1CB933DB3A0AA2D85C0C7FC1F1DE3C4744B8EAA3C58DFC44688C01576528</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>4F955789C7FD114B0B09FD43DDA7D87AC1C0ED90B4867936E2E61EFDC89731DF</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>05FB23338C0C438E50F6A2E28D307B0E133E6EB7EA43871AEB7B6213A7FB9A21</t>
+  </si>
+  <si>
+    <t>D5B26C9B9EE95F5E881E866C6AFB4149A5CD87ED953ACD8BC65B1B5FE1FA5555</t>
+  </si>
+  <si>
+    <t>4E7F6CA94651A4B213841F9D7DA28BAB72B72095F9A798B07ADDFE211B43022C</t>
+  </si>
+  <si>
+    <t>03DF65BF2069BE55AF9F634D88A644EEE4C2195DF1935B1AECF681454CA3C2BD</t>
+  </si>
+  <si>
+    <t>1D05549CE829383DBFE0257B70DCB53B0711BA8D952D3301F305139F4FDCB8C2</t>
+  </si>
+  <si>
+    <t>3022021B9866662DBB09F8FCCE7FC60722FEB36770762CB13415F010055259AD</t>
+  </si>
+  <si>
+    <t>DFA12BF3272CDBEC19EF82D70ED173094F298C7F7EFA34615E9847AACF60A597</t>
+  </si>
+  <si>
+    <t>0E9DDB304F8E6A6BF5A428AF4245AC6F716A75C5A2CC6D821D916DEBE861DABF</t>
+  </si>
+  <si>
+    <t>A54777A7DEB0598C5F2DBA397B10204334DCE15F1ED04C4BA542022D0DCFCD70</t>
+  </si>
+  <si>
+    <t>B6530B009EA6915ABF35A3EC7D726626B582B027BC47B9431578464297D99010</t>
+  </si>
+  <si>
+    <t>742935F6D7757EAA41F2427B2647FB8325475F17A972841FA17DE235F7C1C303</t>
+  </si>
+  <si>
+    <t>F2D7A339E20E8D5EC5ACD54CB83707178F1D66EB0B912AAD6C47CE956942BA3A</t>
+  </si>
+  <si>
+    <t>AED96399051AB5388AB630F81228061606F89CD5435CAE777EE6286B519AE4E0</t>
+  </si>
+  <si>
+    <t>A2E51DE8DB6AF04618D85A4AFD215206CC6A6C75AADE17CCB8C7244D9552DB9B</t>
+  </si>
+  <si>
+    <t>398B093287884E44F79069A107DEEBD8D83A9BB372F0FBBAF0AB762987D66F7E</t>
+  </si>
+  <si>
+    <t>6E5C7205E7A050672ACBF0924396B7AD42F5CD260DC3AD8BC942D1906ACEC41B</t>
+  </si>
+  <si>
+    <t>C90D0F9B2FC9D10F1ECF48F6AB85C1F8839662F4EDC253FB2EFE05482F441600</t>
+  </si>
+  <si>
+    <t>75F81CB6BF4498616187DFA758230EDE93B664B88751EC878351B7748A6012E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gon-irishub-1</t>
+  </si>
+  <si>
+    <t>59DF4666C8541303A6B2FB125CC1650B77E071534EEA6067D5EA9046520FDE6E</t>
+  </si>
+  <si>
+    <t>8A5261E00B84373250FD06E4A8B5D53D7C17DF6BA79E7D34AE73795218443905</t>
+  </si>
+  <si>
+    <t>8A77BC84615635EF25B6F0127D8D3E36BC58DC8137F282B4F36AFB69154B3B45</t>
+  </si>
+  <si>
+    <t>451CFF690FA12F9DA3E625D29FA505872B377812218EF68293AACB561EB4008D</t>
+  </si>
+  <si>
+    <t>756A79E8899D8B92DAF2F2A796EED2BEDA281EACF977D19DFCBCF6E4846F041A</t>
+  </si>
+  <si>
+    <t>5DCB039F2D6E54DC3BAE2FFB08CB9E02A1F6BE488163F75670CEC795C2613AB8</t>
+  </si>
+  <si>
+    <t>58E920B5B66102FFFF67B456FD658BBD0EE70E8DEEE596E614EF7401C0AABAD0</t>
+  </si>
+  <si>
+    <t>DE158908FA42478579E070736FF3BCCFFAC4D9CC9A82BDF46893E61C323E45F6</t>
+  </si>
+  <si>
+    <t>DABB45EE838389CC3812024E14A89C5DF39E20F5699D0C15E16689AEA8E5B1C5</t>
+  </si>
+  <si>
+    <t>6F2E8C060F2751DFD44683B26DFEE6B545998EEE829E49D6989FCD1FEE75107E</t>
+  </si>
+  <si>
+    <t>397C63BEE08772E628108B20EF14CB5A7405E92AA8477F89676156D9E512F171</t>
+  </si>
+  <si>
+    <t>8FCF811811FA3BCD044CE919CA6FFCF20BB84EF6DE850F2B35AB2435BC365E9D</t>
+  </si>
+  <si>
+    <t>AFB2173AB19980389BCAA8B0D83DB0191F36AD1F2FC70A90DE3AC79A5A7D9A5B</t>
+  </si>
+  <si>
+    <t>580EED1987E2DD7923633ECBCD37C98A8DC796149E6B9B2D9AA5E305D300C794</t>
+  </si>
+  <si>
+    <t>90D9AF6749093C3989FE49E818CE54EE4BA80038C3D986AE32CEAB25067C1154</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -144,8 +303,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -174,18 +333,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,31 +355,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -239,9 +399,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,56 +445,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,6 +466,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -344,55 +503,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,49 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,73 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,6 +702,39 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,29 +756,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,168 +794,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1171,7 +1330,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1410,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1269,10 +1428,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1447,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1306,10 +1465,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1325,7 +1484,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1343,10 +1502,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1521,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1380,10 +1539,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1396,13 +1555,13 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1412,25 +1571,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1443,13 +1616,13 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1459,25 +1632,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1490,13 +1677,13 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1506,25 +1693,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1537,13 +1738,13 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1553,25 +1754,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1584,13 +1799,13 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1600,26 +1815,58 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" ht="13.2" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" ht="13.2" spans="1:1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" ht="13.2" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" ht="13.2" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" ht="13.2" spans="1:1">
+      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1631,13 +1878,13 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1647,25 +1894,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1942,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1715,13 +1976,13 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1731,26 +1992,59 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="13.2" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" ht="13.2" spans="1:1">
+      <c r="A8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1762,13 +2056,13 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1778,25 +2072,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    <row r="6" ht="13.2" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1824,12 +2148,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1860,12 +2184,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1896,12 +2220,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1932,12 +2256,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1953,13 +2277,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -1978,13 +2302,24 @@
     </row>
     <row r="2" ht="13.2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2335,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2020,21 +2355,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2385,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2070,21 +2405,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2435,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2120,21 +2455,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2150,7 +2485,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2172,21 +2507,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2202,7 +2537,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2220,10 +2555,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2574,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2257,10 +2592,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/HashQuark-Research1/evidence.xlsx
+++ b/HashQuark-Research1/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" tabRatio="500" firstSheet="12" activeTab="20"/>
+    <workbookView windowHeight="16960" tabRatio="500" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>TeamName</t>
   </si>
@@ -119,61 +119,67 @@
     <t>336B9AE765EA80F88771BD3DBEFD059195615D361A59CE39BAE7432F5DE577FF</t>
   </si>
   <si>
+    <t>juno1jqu23ee4zjds8mnc6cnc9de9lv38vg8juqchug5vjcpltkg9uwpqf5apt9</t>
+  </si>
+  <si>
     <t>uni-6</t>
   </si>
   <si>
     <t>75BB202B053C053ED7A4696DA880ACE3DCCB032076A1B81168FCDF4473FA5F7F</t>
   </si>
   <si>
+    <t>ibc/A68BCAD6B702229DDBCF4EF37870F283AB68F8E10920A423FEE6423A112419CE</t>
+  </si>
+  <si>
     <t>gon-flixnet-1</t>
   </si>
   <si>
     <t>F2E758646B4640215C252E4FDA7EE50084B62D79F16EC1B8D08C5E2B45611E51</t>
   </si>
   <si>
+    <t>1B5A97DD9B76007974950D4ABB51A46A760D91A045CC0531C6F20EC4DBA3C6AB</t>
+  </si>
+  <si>
+    <t>ibc/93AD90576BAFA7FC0D00DA77BD3EA1C8426CD52A3E4DCDF2B576C2BA0BB9902A</t>
+  </si>
+  <si>
+    <t>task7</t>
+  </si>
+  <si>
+    <t>ibc/DF39BAAAAC2A67173F1DFDCBB2F34E74B60FED51273D6EC9BBB0E2EB0865E8D7</t>
+  </si>
+  <si>
+    <t>task8</t>
+  </si>
+  <si>
+    <t>ibc/7B0C278C76A20F82CA4073F56EA86A698841F5F737320564EC11DA7FD6CB9AE0</t>
+  </si>
+  <si>
+    <t>task9</t>
+  </si>
+  <si>
+    <t>ibc/03C876D8704E6202BD830FB24B99D9DE40ABBBDBAB95A8CD5DA668ACD3076739</t>
+  </si>
+  <si>
+    <t>new1task10</t>
+  </si>
+  <si>
+    <t>ibc/D263639D255AF869577FA40B74E759B510BBB209DC86D5B3A245186A37925076</t>
+  </si>
+  <si>
+    <t>newtask11</t>
+  </si>
+  <si>
+    <t>ibc/D42D85FAA3F6FC33B516900B36B63F85277AA47A89416DFBB1BBDEFB2519F776</t>
+  </si>
+  <si>
+    <t>task12</t>
+  </si>
+  <si>
+    <t>A80B5FB1229307D147473CED5E8854696792AD838E4901214F0FA7BC0C0F1598</t>
+  </si>
+  <si>
     <t>gon-irishub-1</t>
-  </si>
-  <si>
-    <t>1B5A97DD9B76007974950D4ABB51A46A760D91A045CC0531C6F20EC4DBA3C6AB</t>
-  </si>
-  <si>
-    <t>ibc/93AD90576BAFA7FC0D00DA77BD3EA1C8426CD52A3E4DCDF2B576C2BA0BB9902A</t>
-  </si>
-  <si>
-    <t>task7</t>
-  </si>
-  <si>
-    <t>ibc/DF39BAAAAC2A67173F1DFDCBB2F34E74B60FED51273D6EC9BBB0E2EB0865E8D7</t>
-  </si>
-  <si>
-    <t>task8</t>
-  </si>
-  <si>
-    <t>ibc/7B0C278C76A20F82CA4073F56EA86A698841F5F737320564EC11DA7FD6CB9AE0</t>
-  </si>
-  <si>
-    <t>task9</t>
-  </si>
-  <si>
-    <t>ibc/03C876D8704E6202BD830FB24B99D9DE40ABBBDBAB95A8CD5DA668ACD3076739</t>
-  </si>
-  <si>
-    <t>new1task10</t>
-  </si>
-  <si>
-    <t>ibc/D263639D255AF869577FA40B74E759B510BBB209DC86D5B3A245186A37925076</t>
-  </si>
-  <si>
-    <t>newtask11</t>
-  </si>
-  <si>
-    <t>ibc/D42D85FAA3F6FC33B516900B36B63F85277AA47A89416DFBB1BBDEFB2519F776</t>
-  </si>
-  <si>
-    <t>task12</t>
-  </si>
-  <si>
-    <t>A80B5FB1229307D147473CED5E8854696792AD838E4901214F0FA7BC0C0F1598</t>
   </si>
   <si>
     <t>E0BD1CB933DB3A0AA2D85C0C7FC1F1DE3C4744B8EAA3C58DFC44688C01576528</t>
@@ -302,9 +308,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -340,14 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -355,53 +353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,8 +369,91 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,15 +468,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -451,36 +487,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -509,181 +515,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,30 +722,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -754,13 +736,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,149 +766,169 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1428,10 +1434,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1465,10 +1471,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1502,10 +1508,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1539,10 +1545,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1563,7 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1576,34 +1582,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1637,34 +1643,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1698,34 +1704,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1759,34 +1765,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1820,34 +1826,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:1">
@@ -1899,34 +1905,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1997,50 +2003,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="13.2" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="13.2" spans="1:1">
@@ -2058,7 +2064,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2077,50 +2083,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2148,12 +2154,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2184,12 +2190,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2220,12 +2226,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2256,12 +2262,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2335,7 +2341,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2363,13 +2369,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2410,16 +2416,16 @@
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2441,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2460,16 +2466,16 @@
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +2491,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2512,10 +2518,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
@@ -2555,10 +2561,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2592,10 +2598,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/HashQuark-Research1/evidence.xlsx
+++ b/HashQuark-Research1/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="16960" tabRatio="500" activeTab="13"/>
+    <workbookView windowHeight="16960" tabRatio="500" firstSheet="8" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
   <si>
     <t>TeamName</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>90D9AF6749093C3989FE49E818CE54EE4BA80038C3D986AE32CEAB25067C1154</t>
+  </si>
+  <si>
+    <t>318B33896BDCCCAED94EB7ACAAB2E7F84CB369C8909BD7360D55F0C73A146BC8</t>
+  </si>
+  <si>
+    <t>25F85E8C54CDD1C85DE3396C75350714BE7DB75358EE9BAB446F22C5B0B25084</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -308,9 +314,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -333,13 +339,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -351,34 +350,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -396,6 +367,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -404,11 +382,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,8 +425,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +436,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,6 +466,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -468,21 +481,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,13 +527,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,157 +611,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,8 +712,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,6 +723,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,21 +753,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,8 +775,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,154 +793,154 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1563,7 +1569,7 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2141,8 +2147,8 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
@@ -2190,12 +2196,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2226,12 +2232,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2262,12 +2268,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/HashQuark-Research1/evidence.xlsx
+++ b/HashQuark-Research1/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="16960" tabRatio="500" firstSheet="8" activeTab="21"/>
+    <workbookView windowHeight="16960" tabRatio="500" firstSheet="10" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>TeamName</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>25F85E8C54CDD1C85DE3396C75350714BE7DB75358EE9BAB446F22C5B0B25084</t>
+  </si>
+  <si>
+    <t>EEAB8258CB83C1AB3E58DF2374C54E6DF58AB3E7678D368CC6BC59330A0AE88E</t>
+  </si>
+  <si>
+    <t>66BDAF6C1E0391169C7C436018F05D7DA7038137A1FE36FED23E5BF9152ACD47</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -313,8 +319,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -339,6 +345,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -352,43 +365,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,8 +380,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -412,6 +404,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,16 +432,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,6 +454,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -464,17 +469,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,10 +492,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -521,55 +527,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,115 +677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,17 +718,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +739,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -753,30 +768,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,141 +797,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2147,7 +2153,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2183,8 +2189,8 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
@@ -2232,12 +2238,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2268,12 +2274,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/HashQuark-Research1/evidence.xlsx
+++ b/HashQuark-Research1/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="16960" tabRatio="500" firstSheet="10" activeTab="22"/>
+    <workbookView windowHeight="15320" tabRatio="500" firstSheet="13" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TeamName</t>
   </si>
@@ -308,10 +309,22 @@
     <t>66BDAF6C1E0391169C7C436018F05D7DA7038137A1FE36FED23E5BF9152ACD47</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>533B0A684643583AE848197E55A961E950BED5D38C08FD3E47FDCDDF9CC7F0A8</t>
+  </si>
+  <si>
+    <t>1E1DD65128EC2DC0C2984B8B76F9FC77E5D96704840270A8DA85AD0A64D3BEEE</t>
+  </si>
+  <si>
+    <t>49410F1583E0BB97086847AB00BCEEEB3CF5B749500D3870C2A20F33D2FDFA15</t>
+  </si>
+  <si>
+    <t>7EDECC1908A9D89D9AE63B956C6EF675D09597A39A381CE2C1D73409964BA0B6</t>
+  </si>
+  <si>
+    <t>89B752F6BFCCDDC13088FB31FC2954FCB8E77305CD9DE62FAF181403FF6F96C0</t>
+  </si>
+  <si>
+    <t>6A92801471C339B93952A87FF93E36E057E7E30B5CC44D1B59CABA7260BC5978</t>
   </si>
 </sst>
 </file>
@@ -319,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -344,10 +357,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,7 +381,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,31 +425,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,8 +445,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,23 +461,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,7 +485,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,36 +506,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -521,13 +534,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,157 +702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,8 +731,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,11 +761,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,8 +779,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,156 +825,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2189,7 +2202,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2226,7 +2239,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
@@ -2262,7 +2275,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
@@ -2274,12 +2287,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2289,6 +2302,38 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L40" sqref="L39:L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 

--- a/HashQuark-Research1/evidence.xlsx
+++ b/HashQuark-Research1/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="15320" tabRatio="500" firstSheet="13" activeTab="25"/>
+    <workbookView windowWidth="28800" windowHeight="11940" tabRatio="500" firstSheet="18" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
     <sheet name="B7" sheetId="26" r:id="rId26"/>
+    <sheet name="award" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
   <si>
     <t>TeamName</t>
   </si>
@@ -325,6 +326,27 @@
   </si>
   <si>
     <t>6A92801471C339B93952A87FF93E36E057E7E30B5CC44D1B59CABA7260BC5978</t>
+  </si>
+  <si>
+    <t>award id</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>Public Good Awards</t>
+  </si>
+  <si>
+    <t>https://github.com/HashQuark-Research1/cosmos-gon-testnet.git</t>
+  </si>
+  <si>
+    <t>Best NFT Memes</t>
+  </si>
+  <si>
+    <t>https://github.com/HashQuark-Research1/cosmos-nft.git</t>
   </si>
 </sst>
 </file>
@@ -333,9 +355,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -343,6 +365,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -355,6 +385,32 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -370,27 +426,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,60 +452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,7 +476,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,11 +522,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -534,187 +556,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,6 +747,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -742,60 +773,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,151 +802,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1377,51 +1400,51 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -1450,18 +1473,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1487,18 +1510,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1524,18 +1547,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1561,18 +1584,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1598,23 +1621,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -1622,7 +1645,7 @@
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -1659,23 +1682,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
@@ -1683,7 +1706,7 @@
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
@@ -1720,23 +1743,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
@@ -1744,7 +1767,7 @@
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B4" t="s">
@@ -1781,23 +1804,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B3" t="s">
@@ -1805,7 +1828,7 @@
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="s">
@@ -1842,23 +1865,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
@@ -1866,7 +1889,7 @@
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B4" t="s">
@@ -1874,7 +1897,7 @@
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="s">
@@ -1882,22 +1905,22 @@
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:1">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" ht="13.2" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" ht="13.2" spans="1:1">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" ht="13.2" spans="1:1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" ht="13.2" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" ht="13.2" spans="1:1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1921,23 +1944,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
@@ -1945,7 +1968,7 @@
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B4" t="s">
@@ -1982,18 +2005,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2019,23 +2042,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
@@ -2043,7 +2066,7 @@
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B4" t="s">
@@ -2051,7 +2074,7 @@
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B5" t="s">
@@ -2059,7 +2082,7 @@
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B6" t="s">
@@ -2067,7 +2090,7 @@
       </c>
     </row>
     <row r="7" ht="13.2" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B7" t="s">
@@ -2075,7 +2098,7 @@
       </c>
     </row>
     <row r="8" ht="13.2" spans="1:1">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2099,23 +2122,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B3" t="s">
@@ -2123,7 +2146,7 @@
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B4" t="s">
@@ -2131,7 +2154,7 @@
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B5" t="s">
@@ -2139,7 +2162,7 @@
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B6" t="s">
@@ -2173,17 +2196,17 @@
   <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2209,17 +2232,17 @@
   <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2245,17 +2268,17 @@
   <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2281,17 +2304,17 @@
   <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2310,28 +2333,82 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L40" sqref="L39:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" ht="16.8" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://github.com/HashQuark-Research1/cosmos-gon-testnet.git"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://github.com/HashQuark-Research1/cosmos-nft.git"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2353,24 +2430,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2408,30 +2485,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2458,30 +2535,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2508,30 +2585,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2560,30 +2637,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2609,18 +2686,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2646,18 +2723,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
